--- a/数据库 设计.xlsx
+++ b/数据库 设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\code\blog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205933FC-DC64-461A-8A65-B60C21A16A03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0922B7-3E03-4E22-BFEA-3B18EB68794E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1815" windowWidth="21210" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="1995" windowWidth="21210" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="authors" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="90">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>data_birth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,26 +214,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(16)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(32)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(256)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(2048)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>timestamp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -399,6 +379,14 @@
   </si>
   <si>
     <t>标签id 数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>author</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -760,7 +748,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -773,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -785,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -794,7 +782,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -802,7 +790,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -816,16 +804,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -833,100 +821,100 @@
         <v>9</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -957,7 +945,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -969,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>1</v>
@@ -978,7 +966,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -986,13 +974,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -1000,140 +988,140 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +1151,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1175,7 +1163,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -1184,7 +1172,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1192,13 +1180,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -1209,83 +1197,83 @@
         <v>7</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1302,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1326,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -1335,7 +1323,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1343,13 +1331,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -1357,95 +1345,95 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>39</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1464,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -1488,7 +1476,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -1497,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1505,13 +1493,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>3</v>
@@ -1522,61 +1510,61 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1606,7 +1594,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1618,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -1627,7 +1615,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1635,10 +1623,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>3</v>
@@ -1649,13 +1637,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1663,72 +1651,72 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E10" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1756,7 +1744,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -1768,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
@@ -1777,7 +1765,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1785,10 +1773,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
@@ -1800,14 +1788,14 @@
         <v>9</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1815,89 +1803,89 @@
         <v>7</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1906,7 +1894,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1915,7 +1903,7 @@
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -1924,7 +1912,7 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/数据库 设计.xlsx
+++ b/数据库 设计.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="authors" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="96">
   <si>
     <t xml:space="preserve">作者表</t>
   </si>
@@ -115,6 +115,15 @@
     <t xml:space="preserve">介绍</t>
   </si>
   <si>
+    <t xml:space="preserve">lins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他帐号之类</t>
+  </si>
+  <si>
     <t xml:space="preserve">created_time</t>
   </si>
   <si>
@@ -172,7 +181,6 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">md</t>
     </r>
@@ -196,7 +204,6 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">html</t>
     </r>
@@ -229,7 +236,6 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">id</t>
     </r>
@@ -256,7 +262,6 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">id </t>
     </r>
@@ -271,6 +276,21 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">is_publisth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否发布</t>
+  </si>
+  <si>
+    <t xml:space="preserve">is_comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否允许评论</t>
+  </si>
+  <si>
     <t xml:space="preserve">书籍表</t>
   </si>
   <si>
@@ -298,7 +318,6 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">id </t>
     </r>
@@ -349,7 +368,6 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">id</t>
     </r>
@@ -397,7 +415,6 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ip </t>
     </r>
@@ -416,7 +433,6 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -452,7 +468,6 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">md </t>
     </r>
@@ -482,7 +497,6 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">id</t>
     </r>
@@ -509,7 +523,6 @@
         <color rgb="FF000000"/>
         <rFont val="等线"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">id</t>
     </r>
@@ -552,7 +565,6 @@
       <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -603,7 +615,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -630,6 +642,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -729,13 +745,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.7890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.08"/>
@@ -743,7 +759,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="10.34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -772,7 +788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -788,11 +804,11 @@
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
@@ -805,11 +821,11 @@
       <c r="E4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
         <v>16</v>
       </c>
@@ -822,11 +838,11 @@
       <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
         <v>18</v>
       </c>
@@ -839,11 +855,11 @@
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -856,11 +872,11 @@
       <c r="E7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
         <v>26</v>
       </c>
@@ -873,59 +889,76 @@
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>38</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -947,28 +980,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.7890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="9" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="15.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="10.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="10" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="15.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="10.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="14.22"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -977,183 +1010,218 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="D5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="8" t="s">
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>49</v>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>51</v>
+      <c r="C8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>29</v>
+        <v>55</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="D12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+      <c r="E12" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="9" t="s">
+      <c r="B13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -1179,22 +1247,22 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.7890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="14.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="10.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="17.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="10.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="14.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="10.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="17.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="10" width="10.34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -1203,124 +1271,124 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="9" t="s">
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1348,21 +1416,21 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.7890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="9" width="16.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="17.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="9" width="10.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="10" width="16.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="17.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="10" width="10.34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -1371,141 +1439,141 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="E8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="C9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1601,7 @@
       <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.7890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="18.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.08"/>
@@ -1541,9 +1609,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1557,20 +1625,20 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
@@ -1578,7 +1646,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
@@ -1586,73 +1654,73 @@
       <c r="E3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G12" s="7" t="s">
-        <v>72</v>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="8" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1680,23 +1748,23 @@
       <selection pane="topLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.7890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="9" width="11.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="10.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="18.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="10.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="19.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="10" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="10.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="10" width="18.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="10" width="10.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="19.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -1705,134 +1773,134 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E11" s="9" t="s">
-        <v>38</v>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1856,25 +1924,25 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.7890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="19.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="19.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
@@ -1883,188 +1951,188 @@
       <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
-        <v>38</v>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
